--- a/Config/Excels/test/full_type.xlsx
+++ b/Config/Excels/test/full_type.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="8280"/>
+    <workbookView windowWidth="24045" windowHeight="12900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="112">
   <si>
     <r>
       <rPr>
@@ -173,29 +173,7 @@
     <t>DemoD2,1,2</t>
   </si>
   <si>
-    <t>test/a</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>xx</t>
-    </r>
+    <t>/apple</t>
   </si>
   <si>
     <t>1,2</t>
@@ -269,31 +247,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>asdfa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
     <t>1;2;3</t>
   </si>
   <si>
@@ -306,9 +259,6 @@
     <t>测试别名,1,2;DemoE1,1,2,4</t>
   </si>
   <si>
-    <t>asdfa2</t>
-  </si>
-  <si>
     <t>2020-01-01 00:00:00</t>
   </si>
   <si>
@@ -318,31 +268,6 @@
     <t>测试别名,1,2;DemoE1,1,2,5</t>
   </si>
   <si>
-    <t>key1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>asdfa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-  </si>
-  <si>
     <t>1999-8-4 10:09:09</t>
   </si>
   <si>
@@ -373,31 +298,6 @@
     <t>测试别名,1,2;DemoE1,1,2,8</t>
   </si>
   <si>
-    <t>key2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>asdfa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>7</t>
-    </r>
-  </si>
-  <si>
     <t>1,true;8,false</t>
   </si>
   <si>
@@ -407,31 +307,6 @@
     <t>B</t>
   </si>
   <si>
-    <t>key3</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>asdfa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8</t>
-    </r>
-  </si>
-  <si>
     <t>1,true;9,false</t>
   </si>
   <si>
@@ -450,31 +325,6 @@
     <t>DemoD2,1,3</t>
   </si>
   <si>
-    <t>key4</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>asdfa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9</t>
-    </r>
-  </si>
-  <si>
     <t>1,3</t>
   </si>
   <si>
@@ -505,31 +355,6 @@
     <t>test.login.RoleInfo,1,4,10000</t>
   </si>
   <si>
-    <t>key5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>asdfa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10</t>
-    </r>
-  </si>
-  <si>
     <t>1,4</t>
   </si>
   <si>
@@ -558,31 +383,6 @@
   </si>
   <si>
     <t>DemoD2,1,5</t>
-  </si>
-  <si>
-    <t>key6</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>asdfa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>11</t>
-    </r>
   </si>
   <si>
     <t>1,5</t>
@@ -614,10 +414,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -635,36 +435,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -676,14 +446,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -704,8 +466,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -720,23 +498,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -745,6 +508,22 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -759,7 +538,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -771,6 +557,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -787,25 +587,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -817,7 +695,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,19 +719,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -853,43 +731,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -901,67 +749,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,30 +772,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1018,18 +794,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1064,6 +838,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1072,158 +861,169 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="23" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1231,52 +1031,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1547,10 +1347,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AG15"/>
+  <dimension ref="A1:AF15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1567,15 +1367,15 @@
     <col min="12" max="12" width="16.6285714285714" customWidth="1"/>
     <col min="13" max="13" width="43.3714285714286" customWidth="1"/>
     <col min="17" max="17" width="11.3714285714286" customWidth="1"/>
-    <col min="24" max="24" width="14.1238095238095" customWidth="1"/>
-    <col min="25" max="25" width="20.3714285714286" customWidth="1"/>
-    <col min="26" max="26" width="14.1238095238095" customWidth="1"/>
-    <col min="31" max="31" width="14.4285714285714" customWidth="1"/>
-    <col min="32" max="32" width="11.5047619047619" customWidth="1"/>
-    <col min="33" max="33" width="28.752380952381" customWidth="1"/>
+    <col min="23" max="23" width="14.1238095238095" customWidth="1"/>
+    <col min="24" max="24" width="20.3714285714286" customWidth="1"/>
+    <col min="25" max="25" width="14.1238095238095" customWidth="1"/>
+    <col min="30" max="30" width="14.4285714285714" customWidth="1"/>
+    <col min="31" max="31" width="11.5047619047619" customWidth="1"/>
+    <col min="32" max="32" width="28.752380952381" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:32">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1630,39 +1430,38 @@
       <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="2"/>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
       <c r="V1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="W1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="X1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y1" t="s">
         <v>21</v>
       </c>
+      <c r="AA1" t="s">
+        <v>22</v>
+      </c>
       <c r="AB1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD1" t="s">
         <v>24</v>
       </c>
+      <c r="AD1" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="AE1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:31">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -1687,19 +1486,19 @@
       <c r="I2" t="s">
         <v>35</v>
       </c>
+      <c r="AA2" t="s">
+        <v>36</v>
+      </c>
       <c r="AB2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AC2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AD2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF2" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1714,7 +1513,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:33">
+    <row r="4" spans="2:32">
       <c r="B4" t="s">
         <v>43</v>
       </c>
@@ -1760,7 +1559,7 @@
       <c r="S4" t="s">
         <v>46</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="U4" t="s">
         <v>47</v>
       </c>
       <c r="V4" t="s">
@@ -1769,16 +1568,16 @@
       <c r="W4" t="s">
         <v>49</v>
       </c>
-      <c r="X4" t="s">
+      <c r="X4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="AA4" s="1" t="s">
         <v>51</v>
       </c>
       <c r="AB4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AC4" t="s">
         <v>53</v>
       </c>
       <c r="AD4" t="s">
@@ -1790,11 +1589,8 @@
       <c r="AF4" t="s">
         <v>56</v>
       </c>
-      <c r="AG4" t="s">
-        <v>57</v>
-      </c>
     </row>
-    <row r="5" spans="2:33">
+    <row r="5" spans="2:32">
       <c r="B5" t="s">
         <v>43</v>
       </c>
@@ -1811,16 +1607,16 @@
         <v>1988</v>
       </c>
       <c r="P5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q5" t="s">
         <v>45</v>
       </c>
       <c r="S5" t="s">
-        <v>59</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
+      </c>
+      <c r="U5" t="s">
+        <v>47</v>
       </c>
       <c r="V5" t="s">
         <v>48</v>
@@ -1828,32 +1624,29 @@
       <c r="W5" t="s">
         <v>49</v>
       </c>
-      <c r="X5" t="s">
+      <c r="X5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="Y5" s="3" t="s">
-        <v>51</v>
+      <c r="AA5" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>53</v>
       </c>
       <c r="AD5" t="s">
         <v>54</v>
       </c>
       <c r="AE5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AF5" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="6" spans="2:33">
+    <row r="6" spans="2:32">
       <c r="B6" t="s">
         <v>43</v>
       </c>
@@ -1870,40 +1663,37 @@
         <v>1988</v>
       </c>
       <c r="P6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q6" t="s">
         <v>45</v>
       </c>
       <c r="S6" t="s">
+        <v>46</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB6" t="s">
         <v>59</v>
       </c>
-      <c r="T6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>61</v>
-      </c>
       <c r="AC6" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="AD6" t="s">
         <v>54</v>
       </c>
       <c r="AE6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="AF6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="7" spans="2:33">
+    <row r="7" spans="2:32">
       <c r="B7" t="s">
         <v>43</v>
       </c>
@@ -1923,16 +1713,16 @@
         <v>1988</v>
       </c>
       <c r="P7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q7" t="s">
         <v>45</v>
       </c>
       <c r="S7" t="s">
-        <v>69</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>70</v>
+        <v>46</v>
+      </c>
+      <c r="U7" t="s">
+        <v>47</v>
       </c>
       <c r="V7" t="s">
         <v>48</v>
@@ -1940,32 +1730,29 @@
       <c r="W7" t="s">
         <v>49</v>
       </c>
-      <c r="X7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y7" s="3" t="s">
-        <v>71</v>
+      <c r="X7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>58</v>
       </c>
       <c r="AB7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AC7" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="AD7" t="s">
         <v>54</v>
       </c>
       <c r="AE7" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="AF7" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="8" spans="2:33">
+    <row r="8" spans="2:32">
       <c r="B8" t="s">
         <v>43</v>
       </c>
@@ -2000,50 +1787,52 @@
         <v>111111111</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="O8">
         <v>1988</v>
       </c>
       <c r="P8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q8" t="s">
         <v>45</v>
       </c>
-      <c r="T8" s="1"/>
+      <c r="S8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U8" t="s">
+        <v>47</v>
+      </c>
       <c r="V8" t="s">
         <v>48</v>
       </c>
       <c r="W8" t="s">
         <v>49</v>
       </c>
-      <c r="X8" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y8" s="4" t="s">
-        <v>75</v>
+      <c r="X8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>58</v>
       </c>
       <c r="AB8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AC8" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="AD8" t="s">
         <v>54</v>
       </c>
       <c r="AE8" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AF8" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="9" spans="2:33">
+    <row r="9" spans="2:32">
       <c r="B9" t="s">
         <v>43</v>
       </c>
@@ -2078,50 +1867,52 @@
         <v>111111111</v>
       </c>
       <c r="M9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="O9">
         <v>1988</v>
       </c>
       <c r="P9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q9" t="s">
         <v>45</v>
       </c>
-      <c r="T9" s="1"/>
+      <c r="S9" t="s">
+        <v>46</v>
+      </c>
+      <c r="U9" t="s">
+        <v>47</v>
+      </c>
       <c r="V9" t="s">
         <v>48</v>
       </c>
       <c r="W9" t="s">
         <v>49</v>
       </c>
-      <c r="X9" t="s">
+      <c r="X9" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="Y9" s="3" t="s">
-        <v>51</v>
+      <c r="AA9" t="s">
+        <v>58</v>
       </c>
       <c r="AB9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AC9" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="AD9" t="s">
         <v>54</v>
       </c>
       <c r="AE9" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="AF9" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="10" spans="2:33">
+    <row r="10" spans="2:32">
       <c r="B10" t="s">
         <v>43</v>
       </c>
@@ -2156,22 +1947,22 @@
         <v>111111111</v>
       </c>
       <c r="M10" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="O10">
         <v>1988</v>
       </c>
       <c r="P10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q10" t="s">
         <v>45</v>
       </c>
       <c r="S10" t="s">
-        <v>81</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>82</v>
+        <v>46</v>
+      </c>
+      <c r="U10" t="s">
+        <v>47</v>
       </c>
       <c r="V10" t="s">
         <v>48</v>
@@ -2179,32 +1970,29 @@
       <c r="W10" t="s">
         <v>49</v>
       </c>
-      <c r="X10" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y10" s="3" t="s">
-        <v>66</v>
+      <c r="X10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>58</v>
       </c>
       <c r="AB10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AC10" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="AD10" t="s">
         <v>54</v>
       </c>
       <c r="AE10" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AF10" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="11" spans="2:33">
+    <row r="11" spans="2:32">
       <c r="B11" t="s">
         <v>43</v>
       </c>
@@ -2239,22 +2027,22 @@
         <v>111111111</v>
       </c>
       <c r="M11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="O11">
         <v>1988</v>
       </c>
       <c r="P11" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="Q11" t="s">
         <v>45</v>
       </c>
       <c r="S11" t="s">
-        <v>86</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>87</v>
+        <v>46</v>
+      </c>
+      <c r="U11" t="s">
+        <v>47</v>
       </c>
       <c r="V11" t="s">
         <v>48</v>
@@ -2262,32 +2050,29 @@
       <c r="W11" t="s">
         <v>49</v>
       </c>
-      <c r="X11" t="s">
+      <c r="X11" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="Y11" s="3" t="s">
-        <v>51</v>
+      <c r="AA11" t="s">
+        <v>58</v>
       </c>
       <c r="AB11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AC11" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="AD11" t="s">
         <v>54</v>
       </c>
       <c r="AE11" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="AF11" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="12" spans="2:33">
+    <row r="12" spans="2:32">
       <c r="B12" t="s">
         <v>43</v>
       </c>
@@ -2322,7 +2107,7 @@
         <v>111111111</v>
       </c>
       <c r="M12" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="O12">
         <v>1988</v>
@@ -2334,10 +2119,10 @@
         <v>45</v>
       </c>
       <c r="S12" t="s">
-        <v>86</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>87</v>
+        <v>46</v>
+      </c>
+      <c r="U12" t="s">
+        <v>47</v>
       </c>
       <c r="V12" t="s">
         <v>48</v>
@@ -2345,34 +2130,31 @@
       <c r="W12" t="s">
         <v>49</v>
       </c>
-      <c r="X12" t="s">
+      <c r="X12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="Y12" s="3" t="s">
-        <v>51</v>
+      <c r="AA12" t="s">
+        <v>58</v>
       </c>
       <c r="AB12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AC12" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="AD12" t="s">
         <v>54</v>
       </c>
       <c r="AE12" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AF12" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="13" spans="2:33">
+    <row r="13" spans="2:32">
       <c r="B13" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -2405,7 +2187,7 @@
         <v>111111111</v>
       </c>
       <c r="M13" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="O13">
         <v>1989</v>
@@ -2414,48 +2196,45 @@
         <v>1</v>
       </c>
       <c r="Q13" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="S13" t="s">
-        <v>94</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>95</v>
+        <v>46</v>
+      </c>
+      <c r="U13" t="s">
+        <v>84</v>
       </c>
       <c r="V13" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="W13" t="s">
-        <v>97</v>
-      </c>
-      <c r="X13" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y13" s="3" t="s">
-        <v>99</v>
+        <v>86</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>88</v>
       </c>
       <c r="AB13" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="AC13" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="AD13" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="AE13" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="AF13" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
-    <row r="14" ht="16.5" customHeight="1" spans="2:33">
+    <row r="14" ht="16.5" customHeight="1" spans="2:32">
       <c r="B14" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -2488,7 +2267,7 @@
         <v>111111111</v>
       </c>
       <c r="M14" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="O14">
         <v>1990</v>
@@ -2497,48 +2276,45 @@
         <v>2</v>
       </c>
       <c r="Q14" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="S14" t="s">
-        <v>106</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>107</v>
+        <v>46</v>
+      </c>
+      <c r="U14" t="s">
+        <v>94</v>
       </c>
       <c r="V14" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="W14" t="s">
-        <v>109</v>
-      </c>
-      <c r="X14" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>111</v>
+        <v>96</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>98</v>
       </c>
       <c r="AB14" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="AC14" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="AD14" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="AE14" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="AF14" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
-    <row r="15" ht="16.5" customHeight="1" spans="2:33">
+    <row r="15" ht="16.5" customHeight="1" spans="2:32">
       <c r="B15" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
@@ -2571,7 +2347,7 @@
         <v>111111111</v>
       </c>
       <c r="M15" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="O15">
         <v>1991</v>
@@ -2580,49 +2356,43 @@
         <v>4</v>
       </c>
       <c r="Q15" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="S15" t="s">
-        <v>118</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>119</v>
+        <v>46</v>
+      </c>
+      <c r="U15" t="s">
+        <v>104</v>
       </c>
       <c r="V15" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="W15" t="s">
-        <v>121</v>
-      </c>
-      <c r="X15" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y15" s="3" t="s">
-        <v>123</v>
+        <v>106</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>108</v>
       </c>
       <c r="AB15" t="s">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="AC15" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="AD15" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="AE15" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="AF15" t="s">
-        <v>126</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="S1:T1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
